--- a/新FW650配料系统测试20190704.xlsx
+++ b/新FW650配料系统测试20190704.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
   <si>
     <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,10 @@
   </si>
   <si>
     <t>4.工号名字设置，设置操作员信息，目前为18个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.更新屏幕程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,7 +1013,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:F27"/>
+      <selection activeCell="E25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1356,8 +1360,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="20.25">
       <c r="A26" s="2"/>

--- a/新FW650配料系统测试20190704.xlsx
+++ b/新FW650配料系统测试20190704.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\FW650_NEW\FW650\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFEF266-F81D-4720-8CB8-0C1403C10F00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24795" windowHeight="11880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,15 +446,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.更新屏幕程序</t>
+    <t>5.更新屏幕程序，U盘更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +589,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -603,14 +617,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="D:\Users\Documents\Tencent Files\MobileFile\Image\F$QS81[VF@%QOQ~YT9AP_`4.png"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="D:\Users\Documents\Tencent Files\MobileFile\Image\F$QS81[VF@%QOQ~YT9AP_`4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -650,7 +670,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -690,14 +716,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="D:\Users\Documents\Tencent Files\MobileFile\Image\W@_T7L@~Y[VQLF7}_{L15RS.png"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="D:\Users\Documents\Tencent Files\MobileFile\Image\W@_T7L@~Y[VQLF7}_{L15RS.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -726,7 +758,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -768,7 +800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,9 +832,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,6 +884,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1009,25 +1077,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="58.125" customWidth="1"/>
-    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="58.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5">
+    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -1039,7 +1107,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="20.25">
+    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43650</v>
       </c>
@@ -1047,7 +1115,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1062,7 +1130,7 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="20.25">
+    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -1078,7 +1146,7 @@
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="20.25">
+    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>26</v>
@@ -1092,7 +1160,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="20.25">
+    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>28</v>
@@ -1106,7 +1174,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="20.25">
+    <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>38</v>
@@ -1120,7 +1188,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="40.5">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -1136,7 +1204,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="20.25">
+    <row r="9" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1150,7 +1218,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="20.25">
+    <row r="10" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>10</v>
@@ -1162,7 +1230,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="20.25">
+    <row r="11" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>11</v>
@@ -1176,7 +1244,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="20.25">
+    <row r="12" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1192,7 +1260,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="20.25">
+    <row r="13" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>15</v>
@@ -1206,7 +1274,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="20.25">
+    <row r="14" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>16</v>
@@ -1218,7 +1286,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="20.25">
+    <row r="15" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>17</v>
@@ -1230,7 +1298,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="20.25">
+    <row r="16" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
@@ -1244,7 +1312,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="20.25">
+    <row r="17" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>21</v>
@@ -1256,7 +1324,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="20.25">
+    <row r="18" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>53</v>
@@ -1268,7 +1336,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="20.25">
+    <row r="19" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>88</v>
       </c>
@@ -1281,7 +1349,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="20.25">
+    <row r="20" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>1</v>
@@ -1293,7 +1361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.25">
+    <row r="21" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>3</v>
@@ -1307,7 +1375,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="20.25">
+    <row r="22" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>4</v>
@@ -1321,7 +1389,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="20.25">
+    <row r="23" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>6</v>
@@ -1335,7 +1403,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="20.25">
+    <row r="24" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>7</v>
@@ -1349,7 +1417,7 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" ht="20.25">
+    <row r="25" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>65</v>
       </c>
@@ -1365,7 +1433,7 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="20.25">
+    <row r="26" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>24</v>
@@ -1377,7 +1445,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="20.25">
+    <row r="27" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -1389,7 +1457,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="20.25">
+    <row r="28" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>29</v>
@@ -1400,7 +1468,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="20.25">
+    <row r="29" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>31</v>
@@ -1409,7 +1477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.25">
+    <row r="30" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>32</v>
@@ -1418,7 +1486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.25">
+    <row r="31" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>33</v>
@@ -1427,7 +1495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.25">
+    <row r="32" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>34</v>
@@ -1436,7 +1504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20.25">
+    <row r="33" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>35</v>
@@ -1446,7 +1514,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="20.25">
+    <row r="34" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>36</v>
@@ -1456,7 +1524,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="20.25">
+    <row r="35" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>37</v>
@@ -1466,12 +1534,12 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="20.25">
+    <row r="36" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43638</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20.25">
+    <row r="37" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -1483,7 +1551,7 @@
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="20.25">
+    <row r="38" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
         <v>41</v>
@@ -1493,7 +1561,7 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" ht="20.25">
+    <row r="39" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" t="s">
         <v>42</v>
@@ -1503,7 +1571,7 @@
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="20.25">
+    <row r="40" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
         <v>43</v>
@@ -1513,7 +1581,7 @@
       </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" ht="20.25">
+    <row r="41" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -1524,7 +1592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20.25">
+    <row r="42" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
         <v>46</v>
@@ -1533,7 +1601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20.25">
+    <row r="43" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
         <v>47</v>
@@ -1542,7 +1610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20.25">
+    <row r="44" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1554,7 +1622,7 @@
       </c>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="20.25">
+    <row r="45" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" t="s">
         <v>50</v>
@@ -1564,7 +1632,7 @@
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" ht="20.25">
+    <row r="46" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
         <v>51</v>
@@ -1574,7 +1642,7 @@
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="20.25">
+    <row r="47" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
         <v>52</v>
@@ -1584,7 +1652,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" ht="20.25">
+    <row r="48" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
@@ -1596,7 +1664,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>57</v>
       </c>
@@ -1604,7 +1672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>59</v>
       </c>
@@ -1612,7 +1680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20.25">
+    <row r="51" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>68</v>
       </c>
@@ -1623,7 +1691,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="20.25">
+    <row r="52" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>69</v>
       </c>
@@ -1635,7 +1703,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>73</v>
       </c>
@@ -1643,7 +1711,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>74</v>
       </c>
@@ -1652,7 +1720,7 @@
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>76</v>
       </c>
@@ -1660,7 +1728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>77</v>
       </c>
@@ -1668,7 +1736,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>78</v>
       </c>
@@ -1678,20 +1746,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="D21:D27"/>
@@ -1708,6 +1762,20 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1717,12 +1785,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1730,12 +1798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新FW650配料系统测试20190704.xlsx
+++ b/新FW650配料系统测试20190704.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\FW650_NEW\FW650\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFEF266-F81D-4720-8CB8-0C1403C10F00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
   <si>
     <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,10 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.应用参数设置：物料信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.员工信息调用后显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,23 +428,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.品类信息设置，设置品类信息，目前为20种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.工号名字设置，设置操作员信息，目前为18个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.更新屏幕程序，U盘更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.客户信息设置，主要为公司信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.基本两点标定功能，自动打印功能开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号设置界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入内容为生产产线编号，班组，员工姓名，班长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.应用参数设置：物料信息，需掉电保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.工号名字设置，设置操作员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.目前为18个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类信息设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入内容为品名，规格，型号，批号以及颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.品类信息设置，设置品类信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.目前为20种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入内容为设备号，邮编，电话，传真，公司名称，公司地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.需掉电保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.需掉电保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以太网参数设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入内容为秤名称，用户名称，IP地址，子网掩码，网关，
+UDP目标地址，UDP端口号以及发送模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.格式1： 17字节托利多连续输出格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.格式2：连续输出称重记录，格式见说明书
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.UDP查询称重记录功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.UDP远程写入数据老版本未加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪表参数界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.仪表内部参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.字段内容包含记录ID，品名，每箱卷数，规格，定量，幅宽，
+长度，箱号，卷号，渗透时间，介电强度，拉升强度，毛重，净重，日期，时间，GUID，status（0=卷标签，1=箱标签）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.打印标签同时生成记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.记录可查询（根据品名查询似乎好一点），可导出，导出记录
+为当天记录，可删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印功能--卷标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.标签格式固定，二维码内容为GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.纸张大小为100*150mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印功能--箱标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +679,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,8 +697,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -612,15 +734,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3543300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1" descr="D:\Users\Documents\Tencent Files\MobileFile\Image\F$QS81[VF@%QOQ~YT9AP_`4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -630,7 +752,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -659,21 +781,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3562349</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -705,21 +827,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3533775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="图片 3" descr="D:\Users\Documents\Tencent Files\MobileFile\Image\W@_T7L@~Y[VQLF7}_{L15RS.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -729,7 +851,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -754,11 +876,360 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3571876</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="D:\Users\Documents\Tencent Files\MobileFile\Image\]9%D4T`2FNJQNG]0~(G8()V.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7572375" y="7781926"/>
+          <a:ext cx="3571876" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4429124</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="D:\Users\Documents\Tencent Files\MobileFile\Image\L3@O(~T$VO174G}~`IYR_43.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7572374" y="9410700"/>
+          <a:ext cx="3648075" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3581400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="D:\Users\Documents\Tencent Files\MobileFile\Image\I$AZ`6(D{HMKYWXLCLMR9IE.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7572375" y="11639551"/>
+          <a:ext cx="3581400" cy="2209799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3581401</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="C__0%P@57`AIR6%20EJWW~G"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572376" y="14116051"/>
+          <a:ext cx="3581400" cy="2200274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3571875</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="{EFR68C_8)GLB6`@5BYELUX"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="16849726"/>
+          <a:ext cx="3571875" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3562351</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="D:\Users\Documents\Tencent Files\MobileFile\Image\%YMV%[HLD`R4}7Y5)W2DW(G.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7572376" y="19573876"/>
+          <a:ext cx="3562350" cy="2314574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3467100</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="24488774"/>
+          <a:ext cx="3467100" cy="3800475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2714625</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3559810</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="D:\Users\Documents\Tencent Files\MobileFile\Image\YK5)LKS1CDS%TB3D%YJ)Q0J.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5857875" y="28956000"/>
+          <a:ext cx="5274310" cy="3508375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -800,7 +1271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -832,27 +1303,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,24 +1337,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1077,37 +1512,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118:F118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="58.109375" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="58.125" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>43650</v>
       </c>
@@ -1115,7 +1550,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1125,12 +1560,12 @@
       <c r="D3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -1140,13 +1575,13 @@
       <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>26</v>
@@ -1154,13 +1589,13 @@
       <c r="C5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>28</v>
@@ -1168,13 +1603,13 @@
       <c r="C6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>38</v>
@@ -1182,13 +1617,13 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -1198,13 +1633,13 @@
       <c r="C8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1214,11 +1649,11 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>10</v>
@@ -1226,545 +1661,1062 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>43638</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2"/>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="3">
+        <v>43638</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="8"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="2"/>
       <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="2"/>
+      <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="D53" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C54" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="D55" s="14"/>
+      <c r="E55" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B56" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C56" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="D56" s="14"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B57" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B58" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="D58" s="14"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B59" t="s">
         <v>73</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C59" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="D59" s="14"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B60" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="D60" s="14"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B61" t="s">
         <v>76</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C61" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B62" t="s">
         <v>77</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C62" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="D62" s="14"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B64" t="s">
         <v>78</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C64" t="s">
         <v>71</v>
       </c>
+      <c r="D64" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="4:6" ht="34.5" customHeight="1">
+      <c r="D65" s="9"/>
+      <c r="E65" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="4:6" ht="24.75" customHeight="1">
+      <c r="D66" s="9"/>
+      <c r="E66" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="4:6" ht="19.5" customHeight="1">
+      <c r="D68" s="9"/>
+      <c r="E68" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D69" s="9"/>
+      <c r="E69" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D70" s="9"/>
+      <c r="E70" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D74" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="85" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D85" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" ht="60.75" customHeight="1">
+      <c r="D86" s="9"/>
+      <c r="E86" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D87" s="9"/>
+      <c r="E87" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="4:6" ht="33.75" customHeight="1">
+      <c r="D88" s="9"/>
+      <c r="E88" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="95" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D95" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D96" s="9"/>
+      <c r="E96" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+    </row>
+    <row r="110" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D111" s="9"/>
+    </row>
+    <row r="113" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D113" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D114" s="9"/>
+      <c r="E114" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D115" s="9"/>
+      <c r="E115" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F115" s="9"/>
+    </row>
+    <row r="116" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+    </row>
+    <row r="118" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+    </row>
+    <row r="119" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+    </row>
+    <row r="120" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+    </row>
+    <row r="123" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+    </row>
+    <row r="124" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+    </row>
+    <row r="127" spans="4:6" ht="20.100000000000001" customHeight="1">
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="E28:F28"/>
+  <mergeCells count="119">
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="D114:D127"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="D96:D111"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="D75:D82"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="D54:D62"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D4:D10"/>
@@ -1776,6 +2728,22 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1785,12 +2753,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1798,12 +2766,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
